--- a/Q1_倾斜进油.xlsx
+++ b/Q1_倾斜进油.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>油位高度/mm</t>
   </si>
   <si>
     <t>累加进油量/L</t>
+  </si>
+  <si>
+    <t>实际油量/L</t>
   </si>
   <si>
     <t>理论油量/L</t>
@@ -54,7 +57,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +68,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,148 +535,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,15 +1031,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="5" max="6" width="12.8888888888889"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,8 +1058,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>411.29</v>
       </c>
@@ -1068,16 +1070,22 @@
         <v>747.86</v>
       </c>
       <c r="C2">
+        <f>B2+215</f>
+        <v>962.86</v>
+      </c>
+      <c r="D2">
         <v>1010.04747941557</v>
       </c>
-      <c r="D2">
-        <v>262.187479415568</v>
-      </c>
       <c r="E2">
-        <v>0.350583637867473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <f>D2-C2</f>
+        <v>47.18747941557</v>
+      </c>
+      <c r="F2">
+        <f>E2/C2</f>
+        <v>0.0490076225158071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>423.45</v>
       </c>
@@ -1085,16 +1093,22 @@
         <v>797.86</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C34" si="0">B3+215</f>
+        <v>1012.86</v>
+      </c>
+      <c r="D3">
         <v>1058.33156568379</v>
       </c>
-      <c r="D3">
-        <v>260.471565683793</v>
-      </c>
       <c r="E3">
-        <v>0.326462744947476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <f t="shared" ref="E3:E34" si="1">D3-C3</f>
+        <v>45.4715656837899</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="2">E3/C3</f>
+        <v>0.0448942259382243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>438.33</v>
       </c>
@@ -1102,16 +1116,22 @@
         <v>847.86</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1062.86</v>
+      </c>
+      <c r="D4">
         <v>1118.04744853772</v>
       </c>
-      <c r="D4">
-        <v>270.187448537724</v>
-      </c>
       <c r="E4">
-        <v>0.318669884813206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>55.1874485377198</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.051923535120072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>450.54</v>
       </c>
@@ -1119,16 +1139,22 @@
         <v>897.86</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1112.86</v>
+      </c>
+      <c r="D5">
         <v>1167.53330216701</v>
       </c>
-      <c r="D5">
-        <v>269.67330216701</v>
-      </c>
       <c r="E5">
-        <v>0.300351170747121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>54.67330216701</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.0491286434654943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>463.9</v>
       </c>
@@ -1136,16 +1162,22 @@
         <v>947.86</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1162.86</v>
+      </c>
+      <c r="D6">
         <v>1222.14594565867</v>
       </c>
-      <c r="D6">
-        <v>274.285945658675</v>
-      </c>
       <c r="E6">
-        <v>0.289373900848939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>59.2859456586698</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.0509828746871247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>477.74</v>
       </c>
@@ -1153,16 +1185,22 @@
         <v>997.86</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1212.86</v>
+      </c>
+      <c r="D7">
         <v>1279.19760196801</v>
       </c>
-      <c r="D7">
-        <v>281.337601968009</v>
-      </c>
       <c r="E7">
-        <v>0.281940955613021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>66.3376019680099</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.0546951849084065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>489.37</v>
       </c>
@@ -1170,16 +1208,22 @@
         <v>1047.86</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1262.86</v>
+      </c>
+      <c r="D8">
         <v>1327.48669840816</v>
       </c>
-      <c r="D8">
-        <v>279.626698408155</v>
-      </c>
       <c r="E8">
-        <v>0.266855017281082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>64.6266984081601</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.0511748716470235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>502.56</v>
       </c>
@@ -1187,16 +1231,22 @@
         <v>1097.79</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1312.79</v>
+      </c>
+      <c r="D9">
         <v>1382.60746225312</v>
       </c>
-      <c r="D9">
-        <v>284.817462253123</v>
-      </c>
       <c r="E9">
-        <v>0.259446216720068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>69.8174622531201</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.0531825061533986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>514.69</v>
       </c>
@@ -1204,16 +1254,22 @@
         <v>1147.79</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1362.79</v>
+      </c>
+      <c r="D10">
         <v>1433.60481941959</v>
       </c>
-      <c r="D10">
-        <v>285.814819419586</v>
-      </c>
       <c r="E10">
-        <v>0.249013163923354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>70.8148194195901</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.0519631193504429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>526.84</v>
       </c>
@@ -1221,16 +1277,22 @@
         <v>1197.73</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1412.73</v>
+      </c>
+      <c r="D11">
         <v>1484.95547384938</v>
       </c>
-      <c r="D11">
-        <v>287.22547384938</v>
-      </c>
       <c r="E11">
-        <v>0.239808198717056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>72.22547384938</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.0511247540927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>538.88</v>
       </c>
@@ -1238,16 +1300,22 @@
         <v>1247.73</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1462.73</v>
+      </c>
+      <c r="D12">
         <v>1536.08347983639</v>
       </c>
-      <c r="D12">
-        <v>288.353479836394</v>
-      </c>
       <c r="E12">
-        <v>0.231102465947275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>73.3534798363901</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.0501483389527733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>551.96</v>
       </c>
@@ -1255,16 +1323,22 @@
         <v>1297.73</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1512.73</v>
+      </c>
+      <c r="D13">
         <v>1591.8743216117</v>
       </c>
-      <c r="D13">
-        <v>294.144321611703</v>
-      </c>
       <c r="E13">
-        <v>0.226660647139007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>79.1443216117</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.0523188682790055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>564.4</v>
       </c>
@@ -1272,16 +1346,22 @@
         <v>1347.73</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1562.73</v>
+      </c>
+      <c r="D14">
         <v>1645.14769455819</v>
       </c>
-      <c r="D14">
-        <v>297.41769455819</v>
-      </c>
       <c r="E14">
-        <v>0.220680473505962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>82.4176945581901</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.0527395612538251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>576.56</v>
       </c>
@@ -1289,16 +1369,22 @@
         <v>1397.73</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1612.73</v>
+      </c>
+      <c r="D15">
         <v>1697.39800873847</v>
       </c>
-      <c r="D15">
-        <v>299.668008738474</v>
-      </c>
       <c r="E15">
-        <v>0.214396205804035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>84.66800873847</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.0524998038967899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>588.74</v>
       </c>
@@ -1306,16 +1392,22 @@
         <v>1447.73</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1662.73</v>
+      </c>
+      <c r="D16">
         <v>1749.88566356343</v>
       </c>
-      <c r="D16">
-        <v>302.155663563433</v>
-      </c>
       <c r="E16">
-        <v>0.208709955284088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>87.1556635634299</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.0524172075823675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>599.56</v>
       </c>
@@ -1323,16 +1415,22 @@
         <v>1497.73</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1712.73</v>
+      </c>
+      <c r="D17">
         <v>1796.62139043651</v>
       </c>
-      <c r="D17">
-        <v>298.891390436509</v>
-      </c>
       <c r="E17">
-        <v>0.199562932195061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>83.8913904365099</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.0489810947647965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>611.62</v>
       </c>
@@ -1340,16 +1438,22 @@
         <v>1547.73</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1762.73</v>
+      </c>
+      <c r="D18">
         <v>1848.81363033238</v>
       </c>
-      <c r="D18">
-        <v>301.083630332377</v>
-      </c>
       <c r="E18">
-        <v>0.194532399276603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>86.0836303323799</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.0488354032281631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>623.44</v>
       </c>
@@ -1357,16 +1461,22 @@
         <v>1597.73</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1812.73</v>
+      </c>
+      <c r="D19">
         <v>1900.04975809225</v>
       </c>
-      <c r="D19">
-        <v>302.319758092248</v>
-      </c>
       <c r="E19">
-        <v>0.189218302274006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>87.3197580922499</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.0481703056121154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>635.58</v>
       </c>
@@ -1374,16 +1484,22 @@
         <v>1647.73</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1862.73</v>
+      </c>
+      <c r="D20">
         <v>1952.73649798134</v>
       </c>
-      <c r="D20">
-        <v>305.006497981343</v>
-      </c>
       <c r="E20">
-        <v>0.185107085494191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>90.0064979813401</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.0483196695073038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>646.28</v>
       </c>
@@ -1391,16 +1507,22 @@
         <v>1697.73</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1912.73</v>
+      </c>
+      <c r="D21">
         <v>1999.20974101197</v>
       </c>
-      <c r="D21">
-        <v>301.479741011969</v>
-      </c>
       <c r="E21">
-        <v>0.177578143174691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>86.47974101197</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.0452127278873495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>658.59</v>
       </c>
@@ -1408,16 +1530,22 @@
         <v>1747.73</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1962.73</v>
+      </c>
+      <c r="D22">
         <v>2052.69706067105</v>
       </c>
-      <c r="D22">
-        <v>304.967060671052</v>
-      </c>
       <c r="E22">
-        <v>0.174493234464735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>89.9670606710501</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.0458377161764737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>670.22</v>
       </c>
@@ -1425,16 +1553,22 @@
         <v>1797.73</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2012.73</v>
+      </c>
+      <c r="D23">
         <v>2103.23107850784</v>
       </c>
-      <c r="D23">
-        <v>305.501078507838</v>
-      </c>
       <c r="E23">
-        <v>0.169937130997335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>90.5010785078398</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.0449643412220416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>680.63</v>
       </c>
@@ -1442,16 +1576,22 @@
         <v>1847.73</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2062.73</v>
+      </c>
+      <c r="D24">
         <v>2148.44901901226</v>
       </c>
-      <c r="D24">
-        <v>300.719019012259</v>
-      </c>
       <c r="E24">
-        <v>0.16275052037487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>85.7190190122601</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0.0415561023557422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>693.03</v>
       </c>
@@ -1459,16 +1599,22 @@
         <v>1897.73</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2112.73</v>
+      </c>
+      <c r="D25">
         <v>2202.27252482866</v>
       </c>
-      <c r="D25">
-        <v>304.54252482866</v>
-      </c>
       <c r="E25">
-        <v>0.160477267487293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>89.5425248286601</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.042382379588807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>704.67</v>
       </c>
@@ -1476,16 +1622,22 @@
         <v>1947.73</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2162.73</v>
+      </c>
+      <c r="D26">
         <v>2252.73943320288</v>
       </c>
-      <c r="D26">
-        <v>305.009433202883</v>
-      </c>
       <c r="E26">
-        <v>0.156597389372697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>90.0094332028798</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.0416184328154138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>716.45</v>
       </c>
@@ -1493,16 +1645,22 @@
         <v>1997.73</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2212.73</v>
+      </c>
+      <c r="D27">
         <v>2303.73609632937</v>
       </c>
-      <c r="D27">
-        <v>306.006096329375</v>
-      </c>
       <c r="E27">
-        <v>0.153176903950672</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>91.0060963293699</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0.0411284234088072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>727.66</v>
       </c>
@@ -1510,16 +1668,22 @@
         <v>2047.73</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2262.73</v>
+      </c>
+      <c r="D28">
         <v>2352.17460143888</v>
       </c>
-      <c r="D28">
-        <v>304.444601438877</v>
-      </c>
       <c r="E28">
-        <v>0.148674191147699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>89.44460143888</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.0395295070286247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>739.39</v>
       </c>
@@ -1527,16 +1691,22 @@
         <v>2097.73</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2312.73</v>
+      </c>
+      <c r="D29">
         <v>2402.74605369044</v>
       </c>
-      <c r="D29">
-        <v>305.016053690441</v>
-      </c>
       <c r="E29">
-        <v>0.145402913478112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>90.01605369044</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.0389219898952493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>750.9</v>
       </c>
@@ -1544,16 +1714,22 @@
         <v>2147.73</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2362.73</v>
+      </c>
+      <c r="D30">
         <v>2452.23644554933</v>
       </c>
-      <c r="D30">
-        <v>304.506445549327</v>
-      </c>
       <c r="E30">
-        <v>0.141780598841254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>89.5064455493298</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0.0378826381132545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>761.55</v>
       </c>
@@ -1561,16 +1737,22 @@
         <v>2197.73</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2412.73</v>
+      </c>
+      <c r="D31">
         <v>2497.89519912696</v>
       </c>
-      <c r="D31">
-        <v>300.165199126956</v>
-      </c>
       <c r="E31">
-        <v>0.136579652244341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>85.16519912696</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.0352982717199853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>773.43</v>
       </c>
@@ -1578,16 +1760,22 @@
         <v>2247.73</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2462.73</v>
+      </c>
+      <c r="D32">
         <v>2548.65604427183</v>
       </c>
-      <c r="D32">
-        <v>300.92604427183</v>
-      </c>
       <c r="E32">
-        <v>0.1338799785881</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>85.9260442718301</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.0348905662706955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>785.39</v>
       </c>
@@ -1595,16 +1783,22 @@
         <v>2297.73</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2512.73</v>
+      </c>
+      <c r="D33">
         <v>2599.55521438334</v>
       </c>
-      <c r="D33">
-        <v>301.82521438334</v>
-      </c>
       <c r="E33">
-        <v>0.131357998713226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>86.8252143833402</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.0345541360923538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>796.04</v>
       </c>
@@ -1612,16 +1806,22 @@
         <v>2347.73</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2562.73</v>
+      </c>
+      <c r="D34">
         <v>2644.68937304168</v>
       </c>
-      <c r="D34">
-        <v>296.959373041679</v>
-      </c>
       <c r="E34">
-        <v>0.126487872558462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>81.95937304168</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.0319812750627963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>808.27</v>
       </c>
@@ -1629,16 +1829,22 @@
         <v>2397.73</v>
       </c>
       <c r="C35">
+        <f t="shared" ref="C35:C54" si="3">B35+215</f>
+        <v>2612.73</v>
+      </c>
+      <c r="D35">
         <v>2696.27726821626</v>
       </c>
-      <c r="D35">
-        <v>298.547268216257</v>
-      </c>
       <c r="E35">
-        <v>0.124512463128149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f t="shared" ref="E35:E54" si="4">D35-C35</f>
+        <v>83.5472682162599</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F54" si="5">E35/C35</f>
+        <v>0.0319770003851374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>820.8</v>
       </c>
@@ -1646,16 +1852,22 @@
         <v>2447.73</v>
       </c>
       <c r="C36">
+        <f t="shared" si="3"/>
+        <v>2662.73</v>
+      </c>
+      <c r="D36">
         <v>2748.83744868633</v>
       </c>
-      <c r="D36">
-        <v>301.107448686329</v>
-      </c>
       <c r="E36">
-        <v>0.123014976605397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>86.1074486863299</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>0.0323380322775234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>832.8</v>
       </c>
@@ -1663,16 +1875,22 @@
         <v>2497.73</v>
       </c>
       <c r="C37">
+        <f t="shared" si="3"/>
+        <v>2712.73</v>
+      </c>
+      <c r="D37">
         <v>2798.87162590167</v>
       </c>
-      <c r="D37">
-        <v>301.141625901671</v>
-      </c>
       <c r="E37">
-        <v>0.120566124401625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>86.1416259016701</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>0.0317545888834016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>844.47</v>
       </c>
@@ -1680,16 +1898,22 @@
         <v>2547.73</v>
       </c>
       <c r="C38">
+        <f t="shared" si="3"/>
+        <v>2762.73</v>
+      </c>
+      <c r="D38">
         <v>2847.2225325796</v>
       </c>
-      <c r="D38">
-        <v>299.492532579597</v>
-      </c>
       <c r="E38">
-        <v>0.117552696941826</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>84.4925325795998</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>0.0305829858797638</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>856.29</v>
       </c>
@@ -1697,16 +1921,22 @@
         <v>2597.73</v>
       </c>
       <c r="C39">
+        <f t="shared" si="3"/>
+        <v>2812.73</v>
+      </c>
+      <c r="D39">
         <v>2895.86268470452</v>
       </c>
-      <c r="D39">
-        <v>298.132684704517</v>
-      </c>
       <c r="E39">
-        <v>0.114766617279131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>83.1326847045198</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>0.0295558708814994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>867.6</v>
       </c>
@@ -1714,16 +1944,22 @@
         <v>2647.73</v>
       </c>
       <c r="C40">
+        <f t="shared" si="3"/>
+        <v>2862.73</v>
+      </c>
+      <c r="D40">
         <v>2942.06912235304</v>
       </c>
-      <c r="D40">
-        <v>294.339122353038</v>
-      </c>
       <c r="E40">
-        <v>0.111166592648434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>79.3391223530398</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>0.0277144971244371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>880.06</v>
       </c>
@@ -1731,16 +1967,22 @@
         <v>2697.73</v>
       </c>
       <c r="C41">
+        <f t="shared" si="3"/>
+        <v>2912.73</v>
+      </c>
+      <c r="D41">
         <v>2992.56844938688</v>
       </c>
-      <c r="D41">
-        <v>294.83844938688</v>
-      </c>
       <c r="E41">
-        <v>0.109291311356911</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>79.8384493868798</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>0.0274101785565019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>892.92</v>
       </c>
@@ -1748,16 +1990,22 @@
         <v>2747.73</v>
       </c>
       <c r="C42">
+        <f t="shared" si="3"/>
+        <v>2962.73</v>
+      </c>
+      <c r="D42">
         <v>3044.2130026947</v>
       </c>
-      <c r="D42">
-        <v>296.483002694695</v>
-      </c>
       <c r="E42">
-        <v>0.107901068407265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>81.4830026947002</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>0.0275026758073467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>904.34</v>
       </c>
@@ -1765,16 +2013,22 @@
         <v>2797.73</v>
       </c>
       <c r="C43">
+        <f t="shared" si="3"/>
+        <v>3012.73</v>
+      </c>
+      <c r="D43">
         <v>3089.64279788264</v>
       </c>
-      <c r="D43">
-        <v>291.912797882634</v>
-      </c>
       <c r="E43">
-        <v>0.104339159919876</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>76.91279788264</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>0.0255292700914586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>917.34</v>
       </c>
@@ -1782,16 +2036,22 @@
         <v>2847.73</v>
       </c>
       <c r="C44">
+        <f t="shared" si="3"/>
+        <v>3062.73</v>
+      </c>
+      <c r="D44">
         <v>3140.83172027029</v>
       </c>
-      <c r="D44">
-        <v>293.101720270291</v>
-      </c>
       <c r="E44">
-        <v>0.102924687477497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>78.1017202702901</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>0.0255006873835729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>929.9</v>
       </c>
@@ -1799,16 +2059,22 @@
         <v>2897.73</v>
       </c>
       <c r="C45">
+        <f t="shared" si="3"/>
+        <v>3112.73</v>
+      </c>
+      <c r="D45">
         <v>3189.72292598976</v>
       </c>
-      <c r="D45">
-        <v>291.992925989765</v>
-      </c>
       <c r="E45">
-        <v>0.100766091385245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>76.9929259897599</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>0.0247348552523861</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>941.42</v>
       </c>
@@ -1816,16 +2082,22 @@
         <v>2947.73</v>
       </c>
       <c r="C46">
+        <f t="shared" si="3"/>
+        <v>3162.73</v>
+      </c>
+      <c r="D46">
         <v>3234.04787335985</v>
       </c>
-      <c r="D46">
-        <v>286.317873359854</v>
-      </c>
       <c r="E46">
-        <v>0.0971316482038225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>71.3178733598502</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>0.0225494662395621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>954.6</v>
       </c>
@@ -1833,16 +2105,22 @@
         <v>2997.73</v>
       </c>
       <c r="C47">
+        <f t="shared" si="3"/>
+        <v>3212.73</v>
+      </c>
+      <c r="D47">
         <v>3284.1158298371</v>
       </c>
-      <c r="D47">
-        <v>286.385829837095</v>
-      </c>
       <c r="E47">
-        <v>0.0955342308470393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>71.3858298371001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>0.0222196791629238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>968.09</v>
       </c>
@@ -1850,16 +2128,22 @@
         <v>3047.73</v>
       </c>
       <c r="C48">
+        <f t="shared" si="3"/>
+        <v>3262.73</v>
+      </c>
+      <c r="D48">
         <v>3334.60675365148</v>
       </c>
-      <c r="D48">
-        <v>286.876753651481</v>
-      </c>
       <c r="E48">
-        <v>0.094128007944103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>71.8767536514802</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>0.0220296358115689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>980.14</v>
       </c>
@@ -1867,16 +2151,22 @@
         <v>3097.73</v>
       </c>
       <c r="C49">
+        <f t="shared" si="3"/>
+        <v>3312.73</v>
+      </c>
+      <c r="D49">
         <v>3379.02359606359</v>
       </c>
-      <c r="D49">
-        <v>281.293596063594</v>
-      </c>
       <c r="E49">
-        <v>0.090806363389835</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>66.29359606359</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>0.0200117715792081</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>992.41</v>
       </c>
@@ -1884,16 +2174,22 @@
         <v>3147.73</v>
       </c>
       <c r="C50">
+        <f t="shared" si="3"/>
+        <v>3362.73</v>
+      </c>
+      <c r="D50">
         <v>3423.54913344829</v>
       </c>
-      <c r="D50">
-        <v>275.819133448295</v>
-      </c>
       <c r="E50">
-        <v>0.0876247751390032</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>60.8191334482899</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>0.0180862375059222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>1006.34</v>
       </c>
@@ -1901,16 +2197,22 @@
         <v>3197.73</v>
       </c>
       <c r="C51">
+        <f t="shared" si="3"/>
+        <v>3412.73</v>
+      </c>
+      <c r="D51">
         <v>3473.18917022797</v>
       </c>
-      <c r="D51">
-        <v>275.459170227966</v>
-      </c>
       <c r="E51">
-        <v>0.0861420977468285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>60.4591702279699</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>0.017715778930056</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>1019.07</v>
       </c>
@@ -1918,16 +2220,22 @@
         <v>3247.73</v>
       </c>
       <c r="C52">
+        <f t="shared" si="3"/>
+        <v>3462.73</v>
+      </c>
+      <c r="D52">
         <v>3517.65677584631</v>
       </c>
-      <c r="D52">
-        <v>269.926775846306</v>
-      </c>
       <c r="E52">
-        <v>0.0831124434131859</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>54.9267758463102</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>0.0158622750969063</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>1034.24</v>
       </c>
@@ -1935,16 +2243,22 @@
         <v>3297.73</v>
       </c>
       <c r="C53">
+        <f t="shared" si="3"/>
+        <v>3512.73</v>
+      </c>
+      <c r="D53">
         <v>3569.45747926688</v>
       </c>
-      <c r="D53">
-        <v>271.727479266876</v>
-      </c>
       <c r="E53">
-        <v>0.082398340454457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>56.72747926688</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>0.0161491145823562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>1035.36</v>
       </c>
@@ -1952,13 +2266,19 @@
         <v>3299.74</v>
       </c>
       <c r="C54">
+        <f t="shared" si="3"/>
+        <v>3514.74</v>
+      </c>
+      <c r="D54">
         <v>3573.22832150151</v>
       </c>
-      <c r="D54">
-        <v>273.488321501509</v>
-      </c>
       <c r="E54">
-        <v>0.0828817790194103</v>
+        <f t="shared" si="4"/>
+        <v>58.4883215015102</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>0.0166408671769491</v>
       </c>
     </row>
   </sheetData>
